--- a/CTI.DPI/SQLReportBuilder-DBStructure.xlsx
+++ b/CTI.DPI/SQLReportBuilder-DBStructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="104">
   <si>
     <t>Table Name</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Manual Relationship</t>
+  </si>
+  <si>
+    <t>add, report active/inactive</t>
+  </si>
+  <si>
+    <t>add report roles assignment</t>
   </si>
 </sst>
 </file>
@@ -920,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2795,54 +2801,6 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="2">
-        <v>50</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="2">
-        <v>12</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:P37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B7"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2885,6 +2843,16 @@
         <v>61</v>
       </c>
     </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CTI.DPI/SQLReportBuilder-DBStructure.xlsx
+++ b/CTI.DPI/SQLReportBuilder-DBStructure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="105">
   <si>
     <t>Table Name</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>add report roles assignment</t>
+  </si>
+  <si>
+    <t>query filter should have data type</t>
   </si>
 </sst>
 </file>
@@ -713,15 +716,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -932,23 +935,23 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="20.6328125" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" customWidth="1"/>
-    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="15" width="9.21875" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2810,13 +2813,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B11"/>
+  <dimension ref="B3:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
@@ -2853,6 +2856,11 @@
         <v>103</v>
       </c>
     </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
